--- a/nuevo programa/data_io.xlsx
+++ b/nuevo programa/data_io.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="f_and_ouput" sheetId="1" state="visible" r:id="rId1"/>
@@ -661,7 +661,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.73046875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="14.88" customWidth="1" style="22" min="1" max="1"/>
     <col width="28.11" customWidth="1" style="22" min="2" max="2"/>
@@ -1719,7 +1719,7 @@
       <selection pane="bottomRight" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.73046875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.64" customWidth="1" style="22" min="1" max="1"/>
     <col width="70.33" customWidth="1" style="22" min="2" max="2"/>
@@ -1791,7 +1791,11 @@
       <c r="A2" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="n"/>
+      <c r="B2" s="31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
       <c r="C2" s="32" t="n">
         <v>169.7056</v>
       </c>
@@ -1831,7 +1835,11 @@
       <c r="A3" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="31" t="n"/>
+      <c r="B3" s="31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
       <c r="C3" s="32" t="n">
         <v>176.7767</v>
       </c>
@@ -8754,7 +8762,7 @@
       <selection pane="bottomRight" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.73046875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.64" customWidth="1" style="22" min="1" max="1"/>
     <col width="70.33" customWidth="1" style="22" min="2" max="2"/>
@@ -15751,15 +15759,15 @@
   </sheetPr>
   <dimension ref="A1:F220"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.73046875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.64" customWidth="1" style="22" min="1" max="2"/>
     <col width="48.66" customWidth="1" style="22" min="3" max="3"/>
@@ -15806,7 +15814,11 @@
       <c r="B2" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="31" t="n"/>
+      <c r="C2" s="31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
       <c r="D2" s="32" t="n">
         <v>10</v>
       </c>
@@ -15824,7 +15836,11 @@
       <c r="B3" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="31" t="n"/>
+      <c r="C3" s="31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
       <c r="D3" s="32" t="n">
         <v>1</v>
       </c>
@@ -15842,7 +15858,11 @@
       <c r="B4" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="31" t="n"/>
+      <c r="C4" s="31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
       <c r="D4" s="32" t="n">
         <v>0</v>
       </c>
@@ -15858,9 +15878,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
-      <c r="C5" s="31" t="n"/>
+      <c r="C5" s="31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
       <c r="D5" s="32" t="n">
         <v>1</v>
       </c>
@@ -15878,7 +15902,11 @@
       <c r="B6" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="31" t="n"/>
+      <c r="C6" s="31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
       <c r="D6" s="32" t="n">
         <v>1</v>
       </c>
@@ -18412,7 +18440,7 @@
       <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.73046875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.64" customWidth="1" style="22" min="1" max="2"/>
     <col width="14.66" customWidth="1" style="22" min="3" max="3"/>
@@ -26224,7 +26252,7 @@
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.73046875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="8.789999999999999" customWidth="1" style="22" min="1" max="1"/>
     <col width="15.22" customWidth="1" style="22" min="2" max="2"/>
@@ -28156,7 +28184,7 @@
       <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.73046875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="8.789999999999999" customWidth="1" style="22" min="1" max="2"/>
     <col width="15.22" customWidth="1" style="22" min="3" max="3"/>
@@ -30303,11 +30331,11 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.73046875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="10" customWidth="1" style="22" min="1" max="1"/>
     <col width="11.45" customWidth="1" style="22" min="2" max="2"/>
@@ -31385,7 +31413,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="22" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Fila 7: Todos los valores son nulos. Se detiene el cálculo.</t>
         </is>
